--- a/to-do.xlsx
+++ b/to-do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S6\Stage\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F633848-DD29-4A71-BAB8-8D1334CDA7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A995BC-5D42-4BFE-9B72-20DA969197A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8991ED85-435A-406D-9B42-8647D9730187}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="60">
   <si>
     <t>Nom :</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Nouvelle Portion</t>
   </si>
   <si>
-    <t>Liste Portion</t>
-  </si>
-  <si>
     <t>Avancement Total</t>
   </si>
   <si>
@@ -187,6 +184,27 @@
   </si>
   <si>
     <t>Page d'erreur</t>
+  </si>
+  <si>
+    <t>Liste Route</t>
+  </si>
+  <si>
+    <t>Export Excel</t>
+  </si>
+  <si>
+    <t>Nouvel Etat</t>
+  </si>
+  <si>
+    <t>Etat Route</t>
+  </si>
+  <si>
+    <t>Update Etat</t>
+  </si>
+  <si>
+    <t>Liste Etat</t>
+  </si>
+  <si>
+    <t>Liste Portion par route</t>
   </si>
 </sst>
 </file>
@@ -252,8 +270,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}" name="Table1" displayName="Table1" ref="A4:H59" totalsRowShown="0">
-  <autoFilter ref="A4:H59" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}" name="Table1" displayName="Table1" ref="A4:H68" totalsRowShown="0">
+  <autoFilter ref="A4:H68" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{19ED5805-81D6-43FF-BC0E-44BBDC76AB16}" name="Catégorie"/>
     <tableColumn id="2" xr3:uid="{50E49B5F-158F-4CD4-93A3-9A78ED14BCB9}" name="Taches"/>
@@ -569,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF842E8-387E-4A80-91B0-664FA38FE2A4}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -638,10 +656,10 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -663,10 +681,10 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -679,38 +697,38 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" t="s">
         <v>48</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -732,13 +750,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -757,10 +775,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -779,15 +797,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -809,13 +827,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -834,10 +852,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -915,7 +933,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>8</v>
@@ -993,15 +1011,18 @@
         <v>19</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
       </c>
       <c r="F19">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,18 +1033,21 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
       </c>
       <c r="F20">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1037,48 +1061,54 @@
         <v>18</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
       </c>
       <c r="F21">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
       </c>
       <c r="F22">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G22" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D23">
         <v>30</v>
@@ -1094,90 +1124,102 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
       </c>
       <c r="F24">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
       </c>
       <c r="F25">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
       </c>
       <c r="F26">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
       </c>
       <c r="F27">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1185,21 +1227,24 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
       </c>
       <c r="F28">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1207,21 +1252,24 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
       </c>
       <c r="F29">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1229,21 +1277,24 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>31</v>
       </c>
       <c r="F30">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G30" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1251,7 +1302,7 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
@@ -1259,13 +1310,16 @@
       <c r="D31">
         <v>10</v>
       </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
       <c r="F31">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G31" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1273,7 +1327,7 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
@@ -1295,10 +1349,10 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33">
         <v>30</v>
@@ -1314,20 +1368,20 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G34" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1336,13 +1390,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D35">
         <v>30</v>
@@ -1358,20 +1412,20 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F36">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G36" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1380,20 +1434,20 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1402,13 +1456,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>30</v>
@@ -1424,20 +1478,20 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F39">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G39" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1446,20 +1500,20 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F40">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G40" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1468,13 +1522,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <v>30</v>
@@ -1490,20 +1544,20 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F42">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G42" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1515,7 +1569,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
@@ -1537,10 +1591,10 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -1559,17 +1613,17 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F45">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G45" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1581,17 +1635,17 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F46">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="G46" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1600,13 +1654,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D47">
         <v>30</v>
@@ -1622,20 +1676,20 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F48">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G48" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1644,10 +1698,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
@@ -1666,20 +1720,20 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D50">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F50">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G50" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1688,20 +1742,20 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D51">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F51">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G51" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1710,10 +1764,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -1732,13 +1786,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53">
         <v>30</v>
@@ -1754,20 +1808,20 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F54">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G54" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1776,100 +1830,310 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
       </c>
       <c r="D55">
+        <v>120</v>
+      </c>
+      <c r="F55">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>120</v>
+      </c>
+      <c r="G55" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>30</v>
+      </c>
+      <c r="F56">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>30</v>
+      </c>
+      <c r="G56" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>40</v>
+      </c>
+      <c r="G57" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <v>30</v>
+      </c>
+      <c r="F58">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>30</v>
+      </c>
+      <c r="G58" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59">
         <v>60</v>
       </c>
-      <c r="F55">
+      <c r="F59">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
         <v>60</v>
       </c>
-      <c r="G55" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F56">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F57">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F58">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F59">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>#DIV/0!</v>
+      <c r="G59" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60">
+        <v>60</v>
+      </c>
+      <c r="F60">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>60</v>
+      </c>
+      <c r="G60" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>30</v>
+      </c>
+      <c r="F61">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>30</v>
+      </c>
+      <c r="G61" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62">
+        <v>30</v>
+      </c>
+      <c r="F62">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>30</v>
+      </c>
+      <c r="G62" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B63">
-        <f>SUM(Table1[Estimation (en min)])</f>
-        <v>1370</v>
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="F63">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>20</v>
+      </c>
+      <c r="G63" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64">
+        <v>60</v>
+      </c>
+      <c r="F64">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>60</v>
+      </c>
+      <c r="G64" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65">
+        <v>120</v>
+      </c>
+      <c r="F65">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>120</v>
+      </c>
+      <c r="G65" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72">
+        <f>SUM(Table1[Estimation (en min)])</f>
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73">
+        <f>SUM(Table1[Temps passé(en min)])</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>27</v>
       </c>
-      <c r="B64">
-        <f>SUM(Table1[Temps passé(en min)])</f>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65">
+      <c r="B74">
         <f>SUM(Table1[Rest à faire (en min)])</f>
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" s="1">
-        <f>B64/(B64+B65)</f>
-        <v>0.11751824817518249</v>
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="1">
+        <f>B73/(B73+B74)</f>
+        <v>0.18566978193146416</v>
       </c>
     </row>
   </sheetData>

--- a/to-do.xlsx
+++ b/to-do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S6\Stage\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C396F09-A7F1-4301-AF10-2007DAF406A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63739D94-2393-4B5F-BACA-91878244F671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8991ED85-435A-406D-9B42-8647D9730187}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
   <si>
     <t>Nom :</t>
   </si>
@@ -117,21 +117,6 @@
     <t>Liste MultiCritere</t>
   </si>
   <si>
-    <t>Liste</t>
-  </si>
-  <si>
-    <t>Liste OrderByDégat</t>
-  </si>
-  <si>
-    <t>Liste OrderByBudget</t>
-  </si>
-  <si>
-    <t>Liste OrderByDelai</t>
-  </si>
-  <si>
-    <t>Visuel</t>
-  </si>
-  <si>
     <t>Simulation Budget</t>
   </si>
   <si>
@@ -159,9 +144,6 @@
     <t>Integration</t>
   </si>
   <si>
-    <t>Ingeration</t>
-  </si>
-  <si>
     <t>Voir Devis</t>
   </si>
   <si>
@@ -219,12 +201,6 @@
     <t xml:space="preserve">Route </t>
   </si>
   <si>
-    <t>Liste OrderByNoRN</t>
-  </si>
-  <si>
-    <t>Cout et duréeTotal</t>
-  </si>
-  <si>
     <t>MCD à changer</t>
   </si>
   <si>
@@ -241,6 +217,12 @@
   </si>
   <si>
     <t>Tout</t>
+  </si>
+  <si>
+    <t>Cout et duréeTotal Et noRN</t>
+  </si>
+  <si>
+    <t>Liste OrderBy</t>
   </si>
 </sst>
 </file>
@@ -306,8 +288,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}" name="Table1" displayName="Table1" ref="A4:H84" totalsRowShown="0">
-  <autoFilter ref="A4:H84" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}" name="Table1" displayName="Table1" ref="A4:H68" totalsRowShown="0">
+  <autoFilter ref="A4:H68" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{19ED5805-81D6-43FF-BC0E-44BBDC76AB16}" name="Catégorie"/>
     <tableColumn id="2" xr3:uid="{50E49B5F-158F-4CD4-93A3-9A78ED14BCB9}" name="Taches"/>
@@ -623,16 +605,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF842E8-387E-4A80-91B0-664FA38FE2A4}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
@@ -678,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,13 +715,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -756,15 +738,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -786,13 +768,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -811,10 +793,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -833,15 +815,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -863,13 +845,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -888,10 +870,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -911,15 +893,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -938,13 +920,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D15">
         <v>30</v>
@@ -960,10 +942,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1041,7 +1023,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -1141,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1216,7 +1198,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D26">
         <v>30</v>
@@ -1235,10 +1217,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -1260,10 +1242,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
@@ -1285,13 +1267,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1310,13 +1292,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1335,10 +1317,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
@@ -1360,13 +1342,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -1441,7 +1423,7 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D35">
         <v>31</v>
@@ -1463,7 +1445,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -1488,7 +1470,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
@@ -1513,10 +1495,10 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -1538,7 +1520,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -1563,7 +1545,7 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
@@ -1588,10 +1570,10 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D41">
         <v>26</v>
@@ -1616,18 +1598,21 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
       </c>
       <c r="F42">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1638,18 +1623,21 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
       </c>
       <c r="F43">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1657,21 +1645,24 @@
         <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
       </c>
       <c r="F44">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1682,70 +1673,79 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D45">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
       </c>
       <c r="F45">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
       </c>
       <c r="F46">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D47">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
       </c>
       <c r="F47">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
@@ -1764,20 +1764,20 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F49">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G49" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1786,20 +1786,20 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F50">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G50" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1808,20 +1808,20 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
       </c>
       <c r="D51">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F51">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G51" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1830,20 +1830,20 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F52">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G52" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1852,20 +1852,20 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F53">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G53" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1874,13 +1874,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D54">
         <v>30</v>
@@ -1896,20 +1896,20 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F55">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G55" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1918,20 +1918,20 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D56">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F56">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G56" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1943,17 +1943,17 @@
         <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="D57">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F57">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="G57" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1965,21 +1965,24 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
       </c>
       <c r="F58">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1987,585 +1990,248 @@
         <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
       </c>
       <c r="F59">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D60">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
       </c>
       <c r="F60">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D61">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <v>22</v>
       </c>
       <c r="F61">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
         <v>19</v>
       </c>
       <c r="D62">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
       </c>
       <c r="F62">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G62" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D63">
-        <v>120</v>
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
       </c>
       <c r="F63">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G63" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D64">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
       </c>
       <c r="F64">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G64" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
       </c>
       <c r="F65">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D66">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>9</v>
       </c>
       <c r="F66">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67">
-        <v>60</v>
-      </c>
       <c r="F67">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
-      </c>
-      <c r="G67" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68">
-        <v>60</v>
-      </c>
-      <c r="F68">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
-      </c>
-      <c r="G68" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69">
-        <v>30</v>
-      </c>
-      <c r="F69">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
-      </c>
-      <c r="G69" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" t="s">
-        <v>43</v>
-      </c>
-      <c r="D70">
-        <v>30</v>
-      </c>
-      <c r="F70">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
-      </c>
-      <c r="G70" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71">
-        <v>20</v>
-      </c>
-      <c r="F71">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
-      </c>
-      <c r="G71" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
+      <c r="G68" s="1"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72">
-        <v>60</v>
-      </c>
-      <c r="F72">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
-      </c>
-      <c r="G72" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B72">
+        <f>SUM(Table1[Estimation (en min)])</f>
+        <v>1040.49</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" t="s">
-        <v>53</v>
-      </c>
-      <c r="C73" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73">
-        <v>120</v>
-      </c>
-      <c r="F73">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>120</v>
-      </c>
-      <c r="G73" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B73">
+        <f>SUM(Table1[Temps passé(en min)])</f>
+        <v>481.49</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74">
-        <v>10</v>
-      </c>
-      <c r="F74">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
-      </c>
-      <c r="G74" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="B74">
+        <f>SUM(Table1[Rest à faire (en min)])</f>
+        <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75">
-        <v>10</v>
-      </c>
-      <c r="F75">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
-      </c>
-      <c r="G75" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76">
-        <v>10</v>
-      </c>
-      <c r="F76">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
-      </c>
-      <c r="G76" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>22</v>
-      </c>
-      <c r="B77" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77">
-        <v>20</v>
-      </c>
-      <c r="F77">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
-      </c>
-      <c r="G77" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78">
-        <v>20</v>
-      </c>
-      <c r="F78">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
-      </c>
-      <c r="G78" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>22</v>
-      </c>
-      <c r="B79" t="s">
-        <v>65</v>
-      </c>
-      <c r="C79" t="s">
-        <v>43</v>
-      </c>
-      <c r="D79">
-        <v>20</v>
-      </c>
-      <c r="F79">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
-      </c>
-      <c r="G79" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G80" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" t="s">
-        <v>71</v>
-      </c>
-      <c r="D82">
-        <v>9</v>
-      </c>
-      <c r="E82">
-        <v>9</v>
-      </c>
-      <c r="F82">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G82" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F83">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G84" s="1"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>25</v>
-      </c>
-      <c r="B88">
-        <f>SUM(Table1[Estimation (en min)])</f>
-        <v>1763.49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>26</v>
-      </c>
-      <c r="B89">
-        <f>SUM(Table1[Temps passé(en min)])</f>
-        <v>424.49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>27</v>
-      </c>
-      <c r="B90">
-        <f>SUM(Table1[Rest à faire (en min)])</f>
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="1">
-        <f>B89/(B89+B90)</f>
-        <v>0.24071018264917862</v>
+      <c r="B75" s="1">
+        <f>B73/(B73+B74)</f>
+        <v>0.46275312593105172</v>
       </c>
     </row>
   </sheetData>

--- a/to-do.xlsx
+++ b/to-do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S6\Stage\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63739D94-2393-4B5F-BACA-91878244F671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A460991-C5E5-4BC2-8B9F-72CE9AC491EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8991ED85-435A-406D-9B42-8647D9730187}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="69">
   <si>
     <t>Nom :</t>
   </si>
@@ -120,12 +120,6 @@
     <t>Simulation Budget</t>
   </si>
   <si>
-    <t>Formulaire</t>
-  </si>
-  <si>
-    <t>Liste Proposition</t>
-  </si>
-  <si>
     <t>Cartographier Proposition</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>Page d'erreur</t>
   </si>
   <si>
-    <t>Liste Route</t>
-  </si>
-  <si>
     <t>Export Excel</t>
   </si>
   <si>
@@ -223,6 +214,24 @@
   </si>
   <si>
     <t>Liste OrderBy</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Integration Template</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update </t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Valider</t>
+  </si>
+  <si>
+    <t>Ajout Colone Validation</t>
   </si>
 </sst>
 </file>
@@ -288,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}" name="Table1" displayName="Table1" ref="A4:H68" totalsRowShown="0">
-  <autoFilter ref="A4:H68" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}" name="Table1" displayName="Table1" ref="A4:H75" totalsRowShown="0">
+  <autoFilter ref="A4:H75" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{19ED5805-81D6-43FF-BC0E-44BBDC76AB16}" name="Catégorie"/>
     <tableColumn id="2" xr3:uid="{50E49B5F-158F-4CD4-93A3-9A78ED14BCB9}" name="Taches"/>
@@ -605,16 +614,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF842E8-387E-4A80-91B0-664FA38FE2A4}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
@@ -660,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -715,38 +725,38 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -768,13 +778,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -793,10 +803,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -815,15 +825,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -845,13 +855,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -870,10 +880,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -893,59 +903,65 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
       </c>
       <c r="F14">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
       </c>
       <c r="F15">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1023,7 +1039,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -1123,7 +1139,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1198,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>30</v>
@@ -1217,10 +1233,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -1242,10 +1258,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
@@ -1267,13 +1283,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1292,13 +1308,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1317,10 +1333,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
@@ -1342,13 +1358,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -1423,7 +1439,7 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>31</v>
@@ -1445,7 +1461,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -1470,7 +1486,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
@@ -1495,10 +1511,10 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -1520,7 +1536,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -1545,7 +1561,7 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
@@ -1570,10 +1586,10 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D41">
         <v>26</v>
@@ -1623,7 +1639,7 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1673,7 +1689,7 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1695,7 +1711,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
@@ -1720,10 +1736,10 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1742,20 +1758,20 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F48">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G48" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1764,20 +1780,20 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
         <v>30</v>
       </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49">
-        <v>40</v>
-      </c>
       <c r="F49">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G49" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1786,13 +1802,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D50">
         <v>30</v>
@@ -1808,20 +1824,20 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D51">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F51">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1830,20 +1846,20 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D52">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F52">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G52" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1852,10 +1868,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
@@ -1874,13 +1890,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D54">
         <v>30</v>
@@ -1896,24 +1912,28 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <f>93+46</f>
+        <v>139</v>
+      </c>
+      <c r="E55">
+        <v>139</v>
       </c>
       <c r="F55">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G55" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1921,10 +1941,10 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D56">
         <v>60</v>
@@ -1940,20 +1960,20 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D57">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F57">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G57" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
@@ -1962,119 +1982,109 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58">
-        <v>15</v>
-      </c>
-      <c r="E58">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F58">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G58" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F59">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G59" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F60">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G60" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D61">
-        <v>22</v>
-      </c>
-      <c r="E61">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F61">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G61" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <f>89</f>
+        <v>89</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <f>14+75</f>
+        <v>89</v>
       </c>
       <c r="F62">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2087,19 +2097,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2112,19 +2122,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F64">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2137,19 +2147,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F65">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2162,76 +2172,251 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" t="s">
         <v>61</v>
       </c>
-      <c r="B66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" t="s">
-        <v>63</v>
-      </c>
-      <c r="D66">
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68">
+        <v>22</v>
+      </c>
+      <c r="E68">
+        <v>22</v>
+      </c>
+      <c r="F68">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>9</v>
       </c>
-      <c r="E66">
-        <v>9</v>
-      </c>
-      <c r="F66">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F67">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G68" s="1"/>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72">
-        <f>SUM(Table1[Estimation (en min)])</f>
-        <v>1040.49</v>
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="1" t="e">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79">
+        <f>SUM(Table1[Estimation (en min)])</f>
+        <v>1157.49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>26</v>
       </c>
-      <c r="B73">
+      <c r="B80">
         <f>SUM(Table1[Temps passé(en min)])</f>
-        <v>481.49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+        <v>728.49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>27</v>
       </c>
-      <c r="B74">
+      <c r="B81">
         <f>SUM(Table1[Rest à faire (en min)])</f>
-        <v>559</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="1">
-        <f>B73/(B73+B74)</f>
-        <v>0.46275312593105172</v>
+      <c r="B82" s="1">
+        <f>B80/(B80+B81)</f>
+        <v>0.62937044812482179</v>
       </c>
     </row>
   </sheetData>

--- a/to-do.xlsx
+++ b/to-do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITU\S6\Stage\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A460991-C5E5-4BC2-8B9F-72CE9AC491EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746A7620-D23C-49A3-91F2-F3FD37A889EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8991ED85-435A-406D-9B42-8647D9730187}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="69">
   <si>
     <t>Nom :</t>
   </si>
@@ -117,30 +117,12 @@
     <t>Liste MultiCritere</t>
   </si>
   <si>
-    <t>Simulation Budget</t>
-  </si>
-  <si>
-    <t>Cartographier Proposition</t>
-  </si>
-  <si>
-    <t>Export PDF Devis</t>
-  </si>
-  <si>
     <t>Export PDF</t>
   </si>
   <si>
-    <t>Export CSV Devis</t>
-  </si>
-  <si>
-    <t>Export CSV</t>
-  </si>
-  <si>
     <t>Integration</t>
   </si>
   <si>
-    <t>Voir Devis</t>
-  </si>
-  <si>
     <t>Login Front</t>
   </si>
   <si>
@@ -232,6 +214,24 @@
   </si>
   <si>
     <t>Ajout Colone Validation</t>
+  </si>
+  <si>
+    <t>Fiche</t>
+  </si>
+  <si>
+    <t>Visuel</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Entrer Budget</t>
+  </si>
+  <si>
+    <t>Réparer</t>
+  </si>
+  <si>
+    <t>Ajout Table Budget</t>
   </si>
 </sst>
 </file>
@@ -275,9 +275,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,8 +298,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}" name="Table1" displayName="Table1" ref="A4:H75" totalsRowShown="0">
-  <autoFilter ref="A4:H75" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}" name="Table1" displayName="Table1" ref="A4:H80" totalsRowShown="0">
+  <autoFilter ref="A4:H80" xr:uid="{6AB2488C-A8B7-4115-A932-687B7139B560}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{19ED5805-81D6-43FF-BC0E-44BBDC76AB16}" name="Catégorie"/>
     <tableColumn id="2" xr3:uid="{50E49B5F-158F-4CD4-93A3-9A78ED14BCB9}" name="Taches"/>
@@ -614,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF842E8-387E-4A80-91B0-664FA38FE2A4}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -725,13 +726,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -748,15 +749,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -778,13 +779,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>30</v>
@@ -803,10 +804,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -825,15 +826,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -855,13 +856,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -880,10 +881,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -903,15 +904,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -933,13 +934,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -958,10 +959,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1017,18 +1018,18 @@
         <v>19</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E18">
         <v>11</v>
       </c>
       <c r="F18">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0.36666666666666664</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1039,7 +1040,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -1139,7 +1140,7 @@
         <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>10</v>
@@ -1214,7 +1215,7 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>30</v>
@@ -1233,10 +1234,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -1258,10 +1259,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
@@ -1283,13 +1284,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -1308,13 +1309,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1333,10 +1334,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
@@ -1358,13 +1359,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -1439,7 +1440,7 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>31</v>
@@ -1461,7 +1462,7 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -1486,7 +1487,7 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
@@ -1511,10 +1512,10 @@
         <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -1536,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -1561,7 +1562,7 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
         <v>19</v>
@@ -1586,10 +1587,10 @@
         <v>22</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D41">
         <v>26</v>
@@ -1639,7 +1640,7 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1689,7 +1690,7 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1711,7 +1712,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
@@ -1736,10 +1737,10 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1761,21 +1762,24 @@
         <v>22</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="E48">
+        <v>17</v>
       </c>
       <c r="F48">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1783,21 +1787,24 @@
         <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
       </c>
       <c r="F49">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1805,21 +1812,24 @@
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>52</v>
+      </c>
+      <c r="E50">
+        <v>52</v>
       </c>
       <c r="F50">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1827,21 +1837,24 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
       </c>
       <c r="F51">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1849,21 +1862,24 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="E52">
+        <v>15</v>
       </c>
       <c r="F52">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1871,21 +1887,24 @@
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
       </c>
       <c r="F53">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1893,29 +1912,32 @@
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="E54">
+        <v>24</v>
       </c>
       <c r="F54">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G54" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
@@ -1938,153 +1960,171 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>60</v>
+        <f>89</f>
+        <v>89</v>
+      </c>
+      <c r="E56">
+        <f>14+75</f>
+        <v>89</v>
       </c>
       <c r="F56">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
       </c>
       <c r="F57">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
       </c>
       <c r="F58">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="E59">
+        <v>15</v>
       </c>
       <c r="F59">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D60">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
       </c>
       <c r="F60">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D61">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
       </c>
       <c r="F61">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
       </c>
       <c r="D62">
-        <f>89</f>
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="E62">
-        <f>14+75</f>
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="F62">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2097,19 +2137,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
         <v>19</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2122,19 +2162,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F64">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2147,19 +2187,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2172,13 +2212,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2197,19 +2237,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
         <v>53</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F67">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2222,19 +2262,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E68">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F68">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2247,44 +2287,40 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F69">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
         <v>0</v>
-      </c>
-      <c r="G69" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F70">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2297,19 +2333,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F71">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2322,19 +2358,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72">
         <v>10</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
       <c r="E72">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F72">
         <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
@@ -2347,76 +2383,195 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D73">
+        <v>30</v>
+      </c>
+      <c r="F73">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>30</v>
+      </c>
+      <c r="G73" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>10</v>
+      </c>
+      <c r="G74" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75">
+        <v>20</v>
+      </c>
+      <c r="F75">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>20</v>
+      </c>
+      <c r="G75" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>9</v>
       </c>
-      <c r="E73">
-        <v>9</v>
-      </c>
-      <c r="F73">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="1">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F74">
-        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="1" t="e">
-        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G75" s="1"/>
+      <c r="B76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>10</v>
+      </c>
+      <c r="G76" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>20</v>
+      </c>
+      <c r="F77">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>20</v>
+      </c>
+      <c r="G77" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>5</v>
+      </c>
+      <c r="G78" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <f>Table1[[#This Row],[Estimation (en min)]]-Table1[[#This Row],[Temps passé(en min)]]</f>
+        <v>10</v>
+      </c>
+      <c r="G79" s="1">
+        <f>Table1[[#This Row],[Temps passé(en min)]]/(Table1[[#This Row],[Temps passé(en min)]]+Table1[[#This Row],[Rest à faire (en min)]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>25</v>
       </c>
-      <c r="B79">
+      <c r="B84">
         <f>SUM(Table1[Estimation (en min)])</f>
-        <v>1157.49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+        <v>1037.49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="B80">
+      <c r="B85">
         <f>SUM(Table1[Temps passé(en min)])</f>
-        <v>728.49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+        <v>932.49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>27</v>
       </c>
-      <c r="B81">
+      <c r="B86">
         <f>SUM(Table1[Rest à faire (en min)])</f>
-        <v>429</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="1">
-        <f>B80/(B80+B81)</f>
-        <v>0.62937044812482179</v>
+      <c r="B87" s="2">
+        <f>B85/(B85+B86)</f>
+        <v>0.89879420524535181</v>
       </c>
     </row>
   </sheetData>
